--- a/biology/Botanique/Patience_à_feuilles_longues/Patience_à_feuilles_longues.xlsx
+++ b/biology/Botanique/Patience_à_feuilles_longues/Patience_à_feuilles_longues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patience_%C3%A0_feuilles_longues</t>
+          <t>Patience_à_feuilles_longues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patience à longues feuilles
-Rumex longifolius, la Patience à longues feuilles, Patience domestique[1] ou Oseille à longues feuilles, est une espèce de plante herbacée de la famille des Polygonacées. 
+Rumex longifolius, la Patience à longues feuilles, Patience domestique ou Oseille à longues feuilles, est une espèce de plante herbacée de la famille des Polygonacées. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patience_%C3%A0_feuilles_longues</t>
+          <t>Patience_à_feuilles_longues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace atteignant 150 cm[1] voire 180 cm de haut.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace atteignant 150 cm voire 180 cm de haut.
 Les feuilles de la base sont larges et à bords fortement ondulés. Les feuilles le long de la tige sont plus petites et sessiles.
-Les fleurs se développent en épis très denses, avec des valves réniformes (5 à 7 mm de long), non dentées et non calleuses[1].
+Les fleurs se développent en épis très denses, avec des valves réniformes (5 à 7 mm de long), non dentées et non calleuses.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patience_%C3%A0_feuilles_longues</t>
+          <t>Patience_à_feuilles_longues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rumex alpinus Hook.f., 1831
 Rumex aquaticus subsp. domesticus (Hartm.) Douin, 1927
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patience_%C3%A0_feuilles_longues</t>
+          <t>Patience_à_feuilles_longues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La patience domestique est fréquente dans toute la France, dans les endroits cultivés. Son domaine de distribution s'étend dans toute l'Europe, de Grande-Bretagne jusqu'au Caucase et l'Asie Centrale.
 </t>
